--- a/SuSS/ANL252_Python_4_Biz/3_Lecturer/Lecture_0_Admin/Students_ANL252.xlsx
+++ b/SuSS/ANL252_Python_4_Biz/3_Lecturer/Lecture_0_Admin/Students_ANL252.xlsx
@@ -5,24 +5,30 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\ANL252_Python_4_Biz\3_Lecturer\Lecture_0_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85D9645-7AB7-45ED-BB37-5F0CDBCDFBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1BD784-8875-4922-8B77-981C2166D176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="821" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Seminar_Zoom_links" sheetId="2" r:id="rId1"/>
+    <sheet name="Seminar_Schedule" sheetId="2" r:id="rId1"/>
     <sheet name="Assigments" sheetId="3" r:id="rId2"/>
     <sheet name="GBA_Groups" sheetId="1" r:id="rId3"/>
+    <sheet name="Zoom_Links_Seminar_1" sheetId="5" r:id="rId4"/>
+    <sheet name="Zoom_Links_Seminar_2" sheetId="6" r:id="rId5"/>
+    <sheet name="Zoom_Links_Seminar_3" sheetId="4" r:id="rId6"/>
+    <sheet name="Zoom_Links_Seminar_4" sheetId="7" r:id="rId7"/>
+    <sheet name="Zoom_Links_Seminar_5" sheetId="8" r:id="rId8"/>
+    <sheet name="Zoom_Links_Seminar_6" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="236">
   <si>
     <t>Full name</t>
   </si>
@@ -487,13 +493,256 @@
   </si>
   <si>
     <t>Remarks</t>
+  </si>
+  <si>
+    <t>KUMAR MUNISH is inviting you to a scheduled Zoom meeting.</t>
+  </si>
+  <si>
+    <t>Topic: ANL252_JUL21_T09: PYTHON FOR DATA ANALYTICS Seminar 3 14 Aug 8.30-11.30 am</t>
+  </si>
+  <si>
+    <t>Time: This is a recurring meeting Meet anytime</t>
+  </si>
+  <si>
+    <t>Join Zoom Meeting</t>
+  </si>
+  <si>
+    <t>https://suss.zoom.us/j/91390034735?pwd=eDFHYnF3eFFzOUdpR0kxdEpyVnVRdz09</t>
+  </si>
+  <si>
+    <t>Meeting ID: 913 9003 4735</t>
+  </si>
+  <si>
+    <t>Passcode: 500016</t>
+  </si>
+  <si>
+    <t>One tap mobile</t>
+  </si>
+  <si>
+    <t>+6531651065,,91390034735#,,,,*500016# Singapore</t>
+  </si>
+  <si>
+    <t>+6531587288,,91390034735#,,,,*500016# Singapore</t>
+  </si>
+  <si>
+    <t>Dial by your location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        +65 3165 1065 Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        +65 3158 7288 Singapore</t>
+  </si>
+  <si>
+    <t>Find your local number: https://suss.zoom.us/u/akqm9QLfm</t>
+  </si>
+  <si>
+    <t>Join by SIP</t>
+  </si>
+  <si>
+    <t>91390034735@zoomcrc.com</t>
+  </si>
+  <si>
+    <t>Join by H.323</t>
+  </si>
+  <si>
+    <t>162.255.37.11 (US West)</t>
+  </si>
+  <si>
+    <t>162.255.36.11 (US East)</t>
+  </si>
+  <si>
+    <t>149.137.40.110 (Singapore)</t>
+  </si>
+  <si>
+    <t>Topic: ANL252_JUL21_T09: PYTHON FOR DATA ANALYTICS Seminar 4 16 Aug 7 - 10 pm</t>
+  </si>
+  <si>
+    <t>https://suss.zoom.us/j/91671605399?pwd=UktpMjBhZEUvWDdoSVlsTFhydFF2dz09</t>
+  </si>
+  <si>
+    <t>Meeting ID: 916 7160 5399</t>
+  </si>
+  <si>
+    <t>Passcode: 159025</t>
+  </si>
+  <si>
+    <t>+6531651065,,91671605399#,,,,*159025# Singapore</t>
+  </si>
+  <si>
+    <t>+6531587288,,91671605399#,,,,*159025# Singapore</t>
+  </si>
+  <si>
+    <t>Find your local number: https://suss.zoom.us/u/ac2JTGlm9O</t>
+  </si>
+  <si>
+    <t>91671605399@zoomcrc.com</t>
+  </si>
+  <si>
+    <t>Topic: ANL252_JUL21_T09: PYTHON FOR DATA ANALYTICS Seminar 2 2 Aug 7-10pm</t>
+  </si>
+  <si>
+    <t>https://suss.zoom.us/j/96126955608?pwd=VW96eS9CUGZCcHFBcmp1RHlON2x4Zz09</t>
+  </si>
+  <si>
+    <t>Meeting ID: 961 2695 5608</t>
+  </si>
+  <si>
+    <t>Passcode: 141430</t>
+  </si>
+  <si>
+    <t>+6531587288,,96126955608#,,,,*141430# Singapore</t>
+  </si>
+  <si>
+    <t>+6531651065,,96126955608#,,,,*141430# Singapore</t>
+  </si>
+  <si>
+    <t>Find your local number: https://suss.zoom.us/u/amp1CYngu</t>
+  </si>
+  <si>
+    <t>96126955608@zoomcrc.com</t>
+  </si>
+  <si>
+    <t>Topic: ANL252_JUL21_T09: PYTHON FOR DATA ANALYTICS Seminar 6 30 Aug 7-10 pm</t>
+  </si>
+  <si>
+    <t>https://suss.zoom.us/j/96723772292?pwd=bDRGWjNjVmlVSjd1am5KYkdnV0VVZz09</t>
+  </si>
+  <si>
+    <t>Meeting ID: 967 2377 2292</t>
+  </si>
+  <si>
+    <t>Passcode: 472981</t>
+  </si>
+  <si>
+    <t>+6531587288,,96723772292#,,,,*472981# Singapore</t>
+  </si>
+  <si>
+    <t>+6531651065,,96723772292#,,,,*472981# Singapore</t>
+  </si>
+  <si>
+    <t>Find your local number: https://suss.zoom.us/u/acVD6iDssi</t>
+  </si>
+  <si>
+    <t>96723772292@zoomcrc.com</t>
+  </si>
+  <si>
+    <t>Topic: ANL252_JUL21_T09: PYTHON FOR DATA ANALYTICS Seminar 5 23 Aug 7-10 pm</t>
+  </si>
+  <si>
+    <t>https://suss.zoom.us/j/96977995196?pwd=T2lrYkgwd0tjV0ZLMlN1clJDNnk0Zz09</t>
+  </si>
+  <si>
+    <t>Meeting ID: 969 7799 5196</t>
+  </si>
+  <si>
+    <t>Passcode: 584733</t>
+  </si>
+  <si>
+    <t>+6531587288,,96977995196#,,,,*584733# Singapore</t>
+  </si>
+  <si>
+    <t>+6531651065,,96977995196#,,,,*584733# Singapore</t>
+  </si>
+  <si>
+    <t>Find your local number: https://suss.zoom.us/u/aex48MfHSR</t>
+  </si>
+  <si>
+    <t>96977995196@zoomcrc.com</t>
+  </si>
+  <si>
+    <t>Topic: ANL252_JUL21_T09: PYTHON FOR DATA ANALYTICS Seminar 1 26 Jul 7-10pm</t>
+  </si>
+  <si>
+    <t>https://suss.zoom.us/j/99673611661?pwd=SWNaNjA3clZ2aE5GMmh4enlEdXFrZz09</t>
+  </si>
+  <si>
+    <t>Meeting ID: 996 7361 1661</t>
+  </si>
+  <si>
+    <t>Passcode: 058922</t>
+  </si>
+  <si>
+    <t>+6531651065,,99673611661#,,,,*058922# Singapore</t>
+  </si>
+  <si>
+    <t>+6531587288,,99673611661#,,,,*058922# Singapore</t>
+  </si>
+  <si>
+    <t>Find your local number: https://suss.zoom.us/u/adAm3V9DEu</t>
+  </si>
+  <si>
+    <t>99673611661@zoomcrc.com</t>
+  </si>
+  <si>
+    <t>Assessment</t>
+  </si>
+  <si>
+    <t>Weightage</t>
+  </si>
+  <si>
+    <t>Start date</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>Pre-Course Quiz 1</t>
+  </si>
+  <si>
+    <t>19 July, 12pm</t>
+  </si>
+  <si>
+    <t>30 July, 12pm</t>
+  </si>
+  <si>
+    <t>Pre-Class Quiz 1</t>
+  </si>
+  <si>
+    <t>2 Aug, 12pm</t>
+  </si>
+  <si>
+    <t>9 Aug, 12pm</t>
+  </si>
+  <si>
+    <t>Pre-Class Quiz 2</t>
+  </si>
+  <si>
+    <t>16 Aug, 12pm</t>
+  </si>
+  <si>
+    <t>23 Aug, 12pm</t>
+  </si>
+  <si>
+    <t>Tutor Marked Assignment</t>
+  </si>
+  <si>
+    <t>8 Aug, 1155 pm</t>
+  </si>
+  <si>
+    <t>Group Based Assessment</t>
+  </si>
+  <si>
+    <t>22 Aug, 1155 pm</t>
+  </si>
+  <si>
+    <t>End-of-Course Assessment</t>
+  </si>
+  <si>
+    <t>6 September 2021, 12 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participation </t>
+  </si>
+  <si>
+    <t>6%  (30% from class, 70% from forum)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,8 +877,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -821,8 +1088,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0D8E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9EDF4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1111,6 +1396,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1156,7 +1486,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,6 +1526,46 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="36" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="37" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="36" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1603,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDC868C-3CC0-4EA3-9F22-0653F2B0E205}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,12 +1989,124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6A3339-65FA-46B7-AF30-B9BE677A6B19}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.18</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2355,4 +2837,838 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAFC5FD-6E3A-494B-A714-AE804E17BBAE}">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="75.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF940900-1179-4E16-9D98-A38FEF38C015}">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="76.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451A213D-E9C3-4FA1-87BC-9D56EDFF4E3E}">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="81" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785E8853-994A-43D1-BF42-E7C5943C1C93}">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="76.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6AF11E-732B-4F1D-B762-4BE0A11B6BC8}">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="75.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14B833E-41D3-4052-8B4D-DD3C579AD3FE}">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="76.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SuSS/ANL252_Python_4_Biz/3_Lecturer/Lecture_0_Admin/Students_ANL252.xlsx
+++ b/SuSS/ANL252_Python_4_Biz/3_Lecturer/Lecture_0_Admin/Students_ANL252.xlsx
@@ -1,34 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\ANL252_Python_4_Biz\3_Lecturer\Lecture_0_Admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\SuSS\ANL252_Python_4_Biz\3_Lecturer\Lecture_0_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1BD784-8875-4922-8B77-981C2166D176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69773C0-0A08-4E40-9C5E-1E3F303FE602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="821" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="821" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seminar_Schedule" sheetId="2" r:id="rId1"/>
     <sheet name="Assigments" sheetId="3" r:id="rId2"/>
     <sheet name="GBA_Groups" sheetId="1" r:id="rId3"/>
-    <sheet name="Zoom_Links_Seminar_1" sheetId="5" r:id="rId4"/>
-    <sheet name="Zoom_Links_Seminar_2" sheetId="6" r:id="rId5"/>
-    <sheet name="Zoom_Links_Seminar_3" sheetId="4" r:id="rId6"/>
-    <sheet name="Zoom_Links_Seminar_4" sheetId="7" r:id="rId7"/>
-    <sheet name="Zoom_Links_Seminar_5" sheetId="8" r:id="rId8"/>
-    <sheet name="Zoom_Links_Seminar_6" sheetId="9" r:id="rId9"/>
+    <sheet name="GBA_Groups_Sorted" sheetId="10" r:id="rId4"/>
+    <sheet name="Zoom_Links_Seminar_1" sheetId="5" r:id="rId5"/>
+    <sheet name="Zoom_Links_Seminar_2" sheetId="6" r:id="rId6"/>
+    <sheet name="Zoom_Links_Seminar_3" sheetId="4" r:id="rId7"/>
+    <sheet name="Zoom_Links_Seminar_4" sheetId="7" r:id="rId8"/>
+    <sheet name="Zoom_Links_Seminar_5" sheetId="8" r:id="rId9"/>
+    <sheet name="Zoom_Links_Seminar_6" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="236">
   <si>
     <t>Full name</t>
   </si>
@@ -896,7 +897,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1106,8 +1107,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1441,6 +1454,121 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1486,7 +1614,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1566,6 +1694,69 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="36" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1987,11 +2178,150 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14B833E-41D3-4052-8B4D-DD3C579AD3FE}">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="76.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6A3339-65FA-46B7-AF30-B9BE677A6B19}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2115,8 +2445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,19 +2556,19 @@
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="29">
         <v>4</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2520,19 +2850,19 @@
       <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="47">
         <v>9</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="48" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2596,19 +2926,19 @@
       <c r="A26" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="29">
         <v>8</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="30" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2662,7 +2992,7 @@
         <v>115</v>
       </c>
       <c r="E29" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F29" s="7"/>
     </row>
@@ -2840,6 +3170,735 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14CFE6-98F2-4C2C-AE37-793847E6E119}">
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="32">
+        <v>1</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="32">
+        <v>2</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="32">
+        <v>3</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="9">
+        <v>3</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="32">
+        <v>4</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="29">
+        <v>4</v>
+      </c>
+      <c r="F15" s="30"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="9">
+        <v>4</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="32">
+        <v>5</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="9">
+        <v>5</v>
+      </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="32">
+        <v>6</v>
+      </c>
+      <c r="F21" s="33"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="2">
+        <v>6</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6</v>
+      </c>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="2">
+        <v>6</v>
+      </c>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="9">
+        <v>6</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="32">
+        <v>7</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="2">
+        <v>7</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="2">
+        <v>7</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="35">
+        <v>7</v>
+      </c>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="39">
+        <v>8</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="2">
+        <v>8</v>
+      </c>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="9">
+        <v>8</v>
+      </c>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="44">
+        <v>9</v>
+      </c>
+      <c r="F33" s="45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="2">
+        <v>9</v>
+      </c>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="9">
+        <v>9</v>
+      </c>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="3">
+        <v>10</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="2">
+        <v>10</v>
+      </c>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="9">
+        <v>10</v>
+      </c>
+      <c r="F38" s="10"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F39">
+    <sortCondition ref="E2:E39"/>
+    <sortCondition ref="F2:F39"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAFC5FD-6E3A-494B-A714-AE804E17BBAE}">
   <dimension ref="A1:A30"/>
   <sheetViews>
@@ -2978,7 +4037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF940900-1179-4E16-9D98-A38FEF38C015}">
   <dimension ref="A1:A30"/>
   <sheetViews>
@@ -3117,7 +4176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451A213D-E9C3-4FA1-87BC-9D56EDFF4E3E}">
   <dimension ref="A1:A30"/>
   <sheetViews>
@@ -3256,7 +4315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785E8853-994A-43D1-BF42-E7C5943C1C93}">
   <dimension ref="A1:A30"/>
   <sheetViews>
@@ -3395,7 +4454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6AF11E-732B-4F1D-B762-4BE0A11B6BC8}">
   <dimension ref="A1:A30"/>
   <sheetViews>
@@ -3532,143 +4591,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14B833E-41D3-4052-8B4D-DD3C579AD3FE}">
-  <dimension ref="A1:A30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="76.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/SuSS/ANL252_Python_4_Biz/3_Lecturer/Lecture_0_Admin/Students_ANL252.xlsx
+++ b/SuSS/ANL252_Python_4_Biz/3_Lecturer/Lecture_0_Admin/Students_ANL252.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\SuSS\ANL252_Python_4_Biz\3_Lecturer\Lecture_0_Admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\ANL252_Python_4_Biz\3_Lecturer\Lecture_0_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69773C0-0A08-4E40-9C5E-1E3F303FE602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7FE07C-1D58-4726-B4ED-87E9DB8D0A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="821" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="821" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seminar_Schedule" sheetId="2" r:id="rId1"/>
     <sheet name="Assigments" sheetId="3" r:id="rId2"/>
-    <sheet name="GBA_Groups" sheetId="1" r:id="rId3"/>
+    <sheet name="GBA_Groups_ORI" sheetId="1" state="hidden" r:id="rId3"/>
     <sheet name="GBA_Groups_Sorted" sheetId="10" r:id="rId4"/>
     <sheet name="Zoom_Links_Seminar_1" sheetId="5" r:id="rId5"/>
     <sheet name="Zoom_Links_Seminar_2" sheetId="6" r:id="rId6"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="238">
   <si>
     <t>Full name</t>
   </si>
@@ -737,6 +737,12 @@
   </si>
   <si>
     <t>6%  (30% from class, 70% from forum)</t>
+  </si>
+  <si>
+    <t>GTG</t>
+  </si>
+  <si>
+    <t>CHEONG JIA EN, SANDRAS</t>
   </si>
 </sst>
 </file>
@@ -2445,7 +2451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
@@ -3171,10 +3177,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14CFE6-98F2-4C2C-AE37-793847E6E119}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F18" sqref="A18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3188,7 +3194,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3208,7 +3214,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -3227,8 +3233,11 @@
       <c r="F2" s="33" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
@@ -3246,7 +3255,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -3264,635 +3273,667 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E6" s="9">
         <v>1</v>
       </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B7" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C7" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D7" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E7" s="32">
         <v>2</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F7" s="33" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="9">
         <v>2</v>
       </c>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B11" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C11" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D11" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E11" s="32">
         <v>3</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F11" s="33" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>3</v>
       </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B13" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="9">
         <v>3</v>
       </c>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B14" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C14" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D14" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E14" s="32">
         <v>4</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F14" s="33" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <v>4</v>
       </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B16" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C16" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D16" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E16" s="29">
         <v>4</v>
       </c>
-      <c r="F15" s="30"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E17" s="9">
         <v>4</v>
       </c>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B18" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C18" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D18" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E18" s="32">
         <v>5</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F18" s="33" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E18" s="2">
-        <v>5</v>
-      </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="E19" s="2">
         <v>5</v>
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E21" s="9">
         <v>5</v>
       </c>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B22" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C22" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D22" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E22" s="32">
         <v>6</v>
       </c>
-      <c r="F21" s="33"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="F22" s="33"/>
+      <c r="G22" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E22" s="2">
-        <v>6</v>
-      </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="E23" s="2">
         <v>6</v>
       </c>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="B24" s="6" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E24" s="2">
         <v>6</v>
       </c>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="2">
+        <v>6</v>
+      </c>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B26" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E26" s="9">
         <v>6</v>
       </c>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B27" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C27" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D27" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E27" s="32">
         <v>7</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F27" s="33" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="G27" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E27" s="2">
-        <v>7</v>
-      </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E28" s="2">
         <v>7</v>
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="2">
+        <v>7</v>
+      </c>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B30" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C30" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D30" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="E29" s="35">
+      <c r="E30" s="35">
         <v>7</v>
       </c>
-      <c r="F29" s="36"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B31" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C31" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D31" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E31" s="39">
         <v>8</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="F31" s="40" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B32" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E32" s="2">
         <v>8</v>
       </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42" t="s">
+      <c r="F32" s="7"/>
+      <c r="G32" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35">
+        <v>8</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D34" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E34" s="9">
         <v>8</v>
       </c>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B35" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C35" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D35" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="44">
+      <c r="E35" s="44">
         <v>9</v>
       </c>
-      <c r="F33" s="45" t="s">
+      <c r="F35" s="45"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="2">
+        <v>9</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="G36" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" s="9">
         <v>9</v>
       </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" s="9">
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="39">
+        <v>10</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="9">
         <v>9</v>
       </c>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E36" s="3">
-        <v>10</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="2">
-        <v>10</v>
-      </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="9">
-        <v>10</v>
-      </c>
-      <c r="F38" s="10"/>
+      <c r="F39" s="10"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F39">
-    <sortCondition ref="E2:E39"/>
-    <sortCondition ref="F2:F39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F40">
+    <sortCondition ref="E2:E40"/>
+    <sortCondition ref="F2:F40"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SuSS/ANL252_Python_4_Biz/3_Lecturer/Lecture_0_Admin/Students_ANL252.xlsx
+++ b/SuSS/ANL252_Python_4_Biz/3_Lecturer/Lecture_0_Admin/Students_ANL252.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\ANL252_Python_4_Biz\3_Lecturer\Lecture_0_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7FE07C-1D58-4726-B4ED-87E9DB8D0A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A0CED6-E97A-4D89-B763-CC4252AB2CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="821" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23304" yWindow="0" windowWidth="16308" windowHeight="12360" tabRatio="821" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seminar_Schedule" sheetId="2" r:id="rId1"/>
     <sheet name="Assigments" sheetId="3" r:id="rId2"/>
-    <sheet name="GBA_Groups_ORI" sheetId="1" state="hidden" r:id="rId3"/>
+    <sheet name="GBA_Groups_ORI" sheetId="1" r:id="rId3"/>
     <sheet name="GBA_Groups_Sorted" sheetId="10" r:id="rId4"/>
     <sheet name="Zoom_Links_Seminar_1" sheetId="5" r:id="rId5"/>
     <sheet name="Zoom_Links_Seminar_2" sheetId="6" r:id="rId6"/>
@@ -24,7 +24,18 @@
     <sheet name="Zoom_Links_Seminar_5" sheetId="8" r:id="rId9"/>
     <sheet name="Zoom_Links_Seminar_6" sheetId="9" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2451,8 +2462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3179,7 +3190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14CFE6-98F2-4C2C-AE37-793847E6E119}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F18" sqref="A18:F18"/>
     </sheetView>
   </sheetViews>
